--- a/KeywordTestNG/DataSheet/AndhraHomeLoan.xlsx
+++ b/KeywordTestNG/DataSheet/AndhraHomeLoan.xlsx
@@ -4,24 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="4890" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="39">
   <si>
     <t>test step</t>
   </si>
   <si>
-    <t>locator</t>
-  </si>
-  <si>
     <t>action</t>
   </si>
   <si>
@@ -34,38 +33,113 @@
     <t>NA</t>
   </si>
   <si>
-    <t>http://www.andhrabank.in</t>
-  </si>
-  <si>
     <t>chrome</t>
   </si>
   <si>
-    <t>launch url</t>
-  </si>
-  <si>
     <t>enter url</t>
   </si>
   <si>
-    <t>click on apply online</t>
+    <t>locatorType</t>
+  </si>
+  <si>
+    <t>locatorValue</t>
+  </si>
+  <si>
+    <t>//a[text()='Apply Online']</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>wait</t>
   </si>
   <si>
     <t>click</t>
   </si>
   <si>
-    <t>close browser</t>
+    <t>https://www.andhrabank.in/english/home.aspx</t>
+  </si>
+  <si>
+    <t>parrentwindow</t>
+  </si>
+  <si>
+    <t>switchwindow</t>
+  </si>
+  <si>
+    <t>//*[@id="spacerdiv"]/table/tbody/tr[3]/td[1]/a/img</t>
+  </si>
+  <si>
+    <t>//*[@id="content"]/form/div/div[1]/table/tbody/tr[1]/td[1]/a/img</t>
+  </si>
+  <si>
+    <t>eligibleAmt</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>getText</t>
   </si>
   <si>
     <t>quit</t>
   </si>
   <si>
-    <t>xpath=//a[text()='Apply Online']</t>
+    <t>Close Browser</t>
+  </si>
+  <si>
+    <t>Open Browser</t>
+  </si>
+  <si>
+    <t>Sleep Time</t>
+  </si>
+  <si>
+    <t>Click on Apply Online</t>
+  </si>
+  <si>
+    <t>Current Window</t>
+  </si>
+  <si>
+    <t>Child Window</t>
+  </si>
+  <si>
+    <t>Retails Loans Page</t>
+  </si>
+  <si>
+    <t>Loan Details Page</t>
+  </si>
+  <si>
+    <t>Preliminary Request Page</t>
+  </si>
+  <si>
+    <t>//a[text()='Customer Corner']</t>
+  </si>
+  <si>
+    <t>Customer Corner</t>
+  </si>
+  <si>
+    <t>//a[text()='Security alerts &amp; Tips ']</t>
+  </si>
+  <si>
+    <t>Launch URL</t>
+  </si>
+  <si>
+    <t>ie</t>
+  </si>
+  <si>
+    <t>Security Tips</t>
+  </si>
+  <si>
+    <t>//*[@id="barba-wrapper"]/div/header/div/div/div[2]/ul/li[1]/a/text()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +169,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -126,11 +206,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -436,96 +516,583 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://www.andhrabank.in"/>
-    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId1" display="http://www.andhrabank.in"/>
+    <hyperlink ref="E3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://www.andhrabank.in"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="http://www.andhrabank.in"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/KeywordTestNG/DataSheet/AndhraHomeLoan.xlsx
+++ b/KeywordTestNG/DataSheet/AndhraHomeLoan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="6750" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="39">
   <si>
     <t>test step</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Customer Corner</t>
   </si>
   <si>
-    <t>//a[text()='Security alerts &amp; Tips ']</t>
-  </si>
-  <si>
     <t>Launch URL</t>
   </si>
   <si>
@@ -132,7 +129,10 @@
     <t>Security Tips</t>
   </si>
   <si>
-    <t>//*[@id="barba-wrapper"]/div/header/div/div/div[2]/ul/li[1]/a/text()</t>
+    <t>security</t>
+  </si>
+  <si>
+    <t>className</t>
   </si>
 </sst>
 </file>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +567,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -601,16 +601,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -618,16 +618,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -949,10 +949,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,12 +995,12 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1034,13 +1034,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
         <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -1081,11 +1081,6 @@
       </c>
       <c r="E7" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
